--- a/public/reports/3059 - Svetionik/2025/09/prepaid/complete_report_Svetionik_prepaid_09_2025.xlsx
+++ b/public/reports/3059 - Svetionik/2025/09/prepaid/complete_report_Svetionik_prepaid_09_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ДЕЛОВОДНИ БРОЈ:</t>
   </si>
@@ -46,7 +46,7 @@
     <t>/09</t>
   </si>
   <si>
-    <t/>
+    <t>Уговор бр 127165/1-2025 од 20.03.2025</t>
   </si>
   <si>
     <t>Прималац (Добављач):</t>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Сврха уплате</t>
+  </si>
+  <si>
+    <t>Хуманитарна акција прикупљања средстава у оквиру реализације Пројекта „Донирај стипендију и хуманитарни пакет“  чији су корисници млади и деца из социјално угрожених породица којима је неопходна финансијска подршка за наставак образовања и породице које се суочавају са свакодневним изазовима обезбеђивања основних животних потреба.</t>
   </si>
   <si>
     <t>Напомена:</t>
@@ -372,11 +375,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -400,9 +406,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -477,9 +480,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -517,7 +520,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -623,7 +626,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -765,7 +768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -776,7 +779,7 @@
   <dimension ref="A7:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="pageLayout">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
@@ -999,11 +1002,11 @@
       <c r="C28" s="13"/>
       <c r="D28" s="34"/>
       <c r="E28" s="35"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
@@ -1022,7 +1025,7 @@
       <c r="J29" s="14"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="10"/>
@@ -1034,8 +1037,8 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
@@ -1047,7 +1050,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="39"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -1059,15 +1062,17 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="39"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="17"/>
+      <c r="D33" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -1114,7 +1119,7 @@
     <row r="37" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="40"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
@@ -1124,20 +1129,20 @@
       <c r="J37" s="21"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
-        <v>21</v>
+      <c r="A38" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="42"/>
+      <c r="D38" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="43"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
@@ -1145,45 +1150,45 @@
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="39"/>
+      <c r="J39" s="40"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
-      <c r="D40" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="44"/>
+      <c r="D40" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="45"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="39"/>
+      <c r="J40" s="40"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
-        <v>26</v>
+      <c r="A41" s="46" t="s">
+        <v>27</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="42"/>
+      <c r="D41" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="43"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
@@ -1195,19 +1200,19 @@
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="39"/>
+      <c r="J42" s="40"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
       <c r="D43" s="22"/>
-      <c r="E43" s="46"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="49"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
@@ -1218,23 +1223,23 @@
       <c r="I44" s="1"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="G46" s="50" t="s">
+      <c r="B46" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="G46" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="G47" s="51" t="s">
-        <v>30</v>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="G47" s="35" t="s">
+        <v>31</v>
       </c>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
@@ -1246,7 +1251,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C50" s="53"/>
       <c r="D50" s="53"/>
@@ -1257,7 +1262,7 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D21:J23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D27:J28"/>
     <mergeCell ref="D33:J37"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B46:D47"/>

--- a/public/reports/3059 - Svetionik/2025/09/prepaid/complete_report_Svetionik_prepaid_09_2025.xlsx
+++ b/public/reports/3059 - Svetionik/2025/09/prepaid/complete_report_Svetionik_prepaid_09_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ДЕЛОВОДНИ БРОЈ:</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Сврха уплате</t>
-  </si>
-  <si>
-    <t>Хуманитарна акција прикупљања средстава у оквиру реализације Пројекта „Донирај стипендију и хуманитарни пакет“  чији су корисници млади и деца из социјално угрожених породица којима је неопходна финансијска подршка за наставак образовања и породице које се суочавају са свакодневним изазовима обезбеђивања основних животних потреба.</t>
   </si>
   <si>
     <t>Напомена:</t>
@@ -1070,9 +1067,7 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -1130,12 +1125,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" s="43"/>
       <c r="F38" s="10"/>
@@ -1150,7 +1145,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -1163,12 +1158,12 @@
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
       <c r="D40" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="1"/>
@@ -1176,12 +1171,12 @@
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="10"/>
@@ -1224,12 +1219,12 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="50"/>
       <c r="G46" s="51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
@@ -1239,7 +1234,7 @@
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
       <c r="G47" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
@@ -1251,7 +1246,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="53"/>
       <c r="D50" s="53"/>

--- a/public/reports/3059 - Svetionik/2025/09/prepaid/complete_report_Svetionik_prepaid_09_2025.xlsx
+++ b/public/reports/3059 - Svetionik/2025/09/prepaid/complete_report_Svetionik_prepaid_09_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ДЕЛОВОДНИ БРОЈ:</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Сврха уплате</t>
+  </si>
+  <si>
+    <t>Хуманитарна акција прикупљања средстава у оквиру реализације Пројекта „Донирај стипендију и хуманитарни пакет“  чији су корисници млади и деца из социјално угрожених породица којима је неопходна финансијска подршка за наставак образовања и породице које се суочавају са свакодневним изазовима обезбеђивања основних животних потреба.</t>
   </si>
   <si>
     <t>Напомена:</t>
@@ -1067,7 +1070,9 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="17"/>
+      <c r="D33" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -1125,12 +1130,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E38" s="43"/>
       <c r="F38" s="10"/>
@@ -1145,7 +1150,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -1158,12 +1163,12 @@
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
       <c r="D40" s="44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="1"/>
@@ -1171,12 +1176,12 @@
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="10"/>
@@ -1219,12 +1224,12 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="50"/>
       <c r="G46" s="51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
@@ -1234,7 +1239,7 @@
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
       <c r="G47" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
@@ -1246,7 +1251,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C50" s="53"/>
       <c r="D50" s="53"/>
